--- a/tut05/output/0401CS34.xlsx
+++ b/tut05/output/0401CS34.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.224489795918367</v>
+        <v>5.22</v>
       </c>
       <c r="C6" t="n">
-        <v>5.386363636363637</v>
+        <v>5.39</v>
       </c>
       <c r="D6" t="n">
-        <v>5.232558139534884</v>
+        <v>5.23</v>
       </c>
       <c r="E6" t="n">
-        <v>5.574468085106383</v>
+        <v>5.57</v>
       </c>
       <c r="F6" t="n">
-        <v>5.452380952380953</v>
+        <v>5.45</v>
       </c>
       <c r="G6" t="n">
-        <v>5.275</v>
+        <v>5.28</v>
       </c>
       <c r="H6" t="n">
-        <v>6.292682926829269</v>
+        <v>6.29</v>
       </c>
       <c r="I6" t="n">
         <v>7.4</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.224489795918367</v>
+        <v>5.22</v>
       </c>
       <c r="C8" t="n">
-        <v>5.301075268817204</v>
+        <v>5.3</v>
       </c>
       <c r="D8" t="n">
-        <v>5.279411764705882</v>
+        <v>5.28</v>
       </c>
       <c r="E8" t="n">
-        <v>5.355191256830601</v>
+        <v>5.36</v>
       </c>
       <c r="F8" t="n">
-        <v>5.373333333333333</v>
+        <v>5.37</v>
       </c>
       <c r="G8" t="n">
-        <v>5.358490566037736</v>
+        <v>5.36</v>
       </c>
       <c r="H8" t="n">
-        <v>5.483660130718954</v>
+        <v>5.48</v>
       </c>
       <c r="I8" t="n">
-        <v>5.705202312138728</v>
+        <v>5.71</v>
       </c>
     </row>
   </sheetData>
